--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed5/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.314000000000001</v>
+        <v>6.785000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>6.128</v>
+        <v>6.669</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.921999999999999</v>
+        <v>-7.509</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -550,13 +550,13 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.728</v>
+        <v>7.181</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.853999999999999</v>
+        <v>-7.569</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>6.98</v>
+        <v>6.867999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.287999999999999</v>
+        <v>-7.419000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.3</v>
+        <v>-21.952</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -627,15 +627,15 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.702</v>
+        <v>12.704</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.816</v>
+        <v>-21.631</v>
       </c>
       <c r="B12" t="n">
-        <v>6.272</v>
+        <v>6.381</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.561999999999999</v>
+        <v>7.637000000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -678,12 +678,12 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>11.592</v>
+        <v>12.832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.076</v>
+        <v>-21.018</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.041999999999998</v>
+        <v>-8.242000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.766</v>
+        <v>12.526</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.184</v>
+        <v>-7.222</v>
       </c>
       <c r="E21" t="n">
-        <v>13.066</v>
+        <v>12.938</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>6.98</v>
+        <v>6.929</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.048</v>
+        <v>-7.532000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.800000000000001</v>
+        <v>-7.860999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
